--- a/examples/SBB/model_parameter_template.SBB_case1.xlsx
+++ b/examples/SBB/model_parameter_template.SBB_case1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t>class</t>
   </si>
@@ -129,9 +129,6 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>porosity as a function of depth</t>
-  </si>
-  <si>
     <t>phi_Inf</t>
   </si>
   <si>
@@ -159,7 +156,7 @@
     <t>cm^2/yr</t>
   </si>
   <si>
-    <t>bioburbation coefficient as a function of depth</t>
+    <t>bioturbation coefficient</t>
   </si>
   <si>
     <t>bioirrigation</t>
@@ -171,7 +168,7 @@
     <t>yr^-1</t>
   </si>
   <si>
-    <t>bioirrigation coefficient as a function of depth</t>
+    <t>bioirrigation coefficient</t>
   </si>
   <si>
     <t>speciation</t>
@@ -207,85 +204,85 @@
     <t>mmol cm^-2 yr^-1</t>
   </si>
   <si>
-    <t>Flux of POC at the  TOP of sediment column</t>
+    <t>Flux of POC at the  TOP</t>
   </si>
   <si>
     <t>FMnO20</t>
   </si>
   <si>
-    <t>Flux of MnO2 at the  TOP of sediment column</t>
+    <t>Flux of MnO2 at the  TOP</t>
   </si>
   <si>
     <t>FFeOOH0</t>
   </si>
   <si>
-    <t>Flux of FeOOH at the  TOP of sediment column</t>
+    <t>Flux of FeOOH at the  TOP</t>
   </si>
   <si>
     <t>FFeS0</t>
   </si>
   <si>
-    <t>Flux of FeS at the  TOP of sediment column</t>
+    <t>Flux of FeS at the  TOP</t>
   </si>
   <si>
     <t>FFeS20</t>
   </si>
   <si>
-    <t>Flux of FeS2 at the  TOP of sediment column</t>
+    <t>Flux of FeS2 at the  TOP</t>
   </si>
   <si>
     <t>FCaCO30</t>
   </si>
   <si>
-    <t>Flux of CaCO3 at the  TOP of sediment column</t>
+    <t>Flux of CaCO3 at the  TOP</t>
   </si>
   <si>
     <t>FMnCO30</t>
   </si>
   <si>
-    <t>Flux of MnCO3 at the  TOP of sediment column</t>
+    <t>Flux of MnCO3 at the  TOP</t>
   </si>
   <si>
     <t>FFeCO30</t>
   </si>
   <si>
-    <t>Flux of FeCO3 at the  TOP of sediment column</t>
+    <t>Flux of FeCO3 at the  TOP</t>
   </si>
   <si>
     <t>FAge0</t>
   </si>
   <si>
-    <t>Flux of age at the  TOP of sediment column</t>
+    <t>Flux of age at the  TOP</t>
   </si>
   <si>
     <t>FBSi0</t>
   </si>
   <si>
-    <t>Flux of BSi at the  TOP of sediment column</t>
+    <t>Flux of BSi at the  TOP</t>
   </si>
   <si>
     <t>FSMol0</t>
   </si>
   <si>
-    <t>Flux of SMol at the  TOP of sediment column</t>
+    <t>Flux of SMol at the  TOP</t>
   </si>
   <si>
     <t>FSMoh0</t>
   </si>
   <si>
-    <t>Flux of SMoh at the  TOP of sediment column</t>
+    <t>Flux of SMoh at the  TOP</t>
   </si>
   <si>
     <t>FLMol0</t>
   </si>
   <si>
-    <t>Flux of LMol at the  TOP of sediment column</t>
+    <t>Flux of LMol at the  TOP</t>
   </si>
   <si>
     <t>FLMoh0</t>
   </si>
   <si>
-    <t>Flux of LMoh at the  TOP of sediment column</t>
+    <t>Flux of LMoh at the  TOP</t>
   </si>
   <si>
     <t>TMn_dis0</t>
@@ -294,49 +291,49 @@
     <t>mmol cm^-3</t>
   </si>
   <si>
-    <t>Concentration of TMn_dis at the TOP of sediment column</t>
+    <t>Concentration of TMn_dis at the TOP</t>
   </si>
   <si>
     <t>TMn_ads0</t>
   </si>
   <si>
-    <t>Concentration of TMn_ads at the TOP of sediment column</t>
+    <t>Concentration of TMn_ads at the TOP</t>
   </si>
   <si>
     <t>TFe_dis0</t>
   </si>
   <si>
-    <t>Concentration of TFe_dis at the TOP of sediment column</t>
+    <t>Concentration of TFe_dis at the TOP</t>
   </si>
   <si>
     <t>TFe_ads0</t>
   </si>
   <si>
-    <t>Concentration of TFe_ads at the TOP of sediment column</t>
+    <t>Concentration of TFe_ads at the TOP</t>
   </si>
   <si>
     <t>TNH4_dis0</t>
   </si>
   <si>
-    <t>Concentration of TNH4_dis at the TOP of sediment column</t>
+    <t>Concentration of TNH4_dis at the TOP</t>
   </si>
   <si>
     <t>TNH4_disL</t>
   </si>
   <si>
-    <t>Concentration of TNH4_dis at the BOTTOM of sediment column</t>
+    <t>Concentration of TNH4_dis at the BOTTOM</t>
   </si>
   <si>
     <t>TNH4_ads0</t>
   </si>
   <si>
-    <t>Concentration of TNH4_ads at the TOP of sediment column</t>
+    <t>Concentration of TNH4_ads at the TOP</t>
   </si>
   <si>
     <t>TNH4_adsL</t>
   </si>
   <si>
-    <t>Concentration of TNH4_ads at the BOTTOM of sediment column</t>
+    <t>Concentration of TNH4_ads at the BOTTOM</t>
   </si>
   <si>
     <t>O2BW</t>
@@ -360,7 +357,7 @@
     <t>CH4L</t>
   </si>
   <si>
-    <t>Concentration of CH4 at the BOTTOM of sediment column</t>
+    <t>Concentration of CH4 at the BOTTOM</t>
   </si>
   <si>
     <t>NO2BW</t>
@@ -378,19 +375,19 @@
     <t>CaL</t>
   </si>
   <si>
-    <t>Concentration of Ca at the BOTTOM of sediment column</t>
+    <t>Concentration of Ca at the BOTTOM</t>
   </si>
   <si>
     <t>Mol_dis0</t>
   </si>
   <si>
-    <t>Concentration of Mol_dis at the TOP of sediment column</t>
+    <t>Concentration of Mol_dis at the TOP</t>
   </si>
   <si>
     <t>Moh_dis0</t>
   </si>
   <si>
-    <t>Concentration of Moh_dis at the TOP of sediment column</t>
+    <t>Concentration of Moh_dis at the TOP</t>
   </si>
   <si>
     <t>TH3PO4BW</t>
@@ -408,7 +405,7 @@
     <t>THSO4L</t>
   </si>
   <si>
-    <t>Concentration of THSO4 at the BOTTOM of sediment column</t>
+    <t>Concentration of THSO4 at the BOTTOM</t>
   </si>
   <si>
     <t>H4SiO4BW</t>
@@ -420,7 +417,7 @@
     <t>H4SiO4L</t>
   </si>
   <si>
-    <t>Concentration of H4SiO4 at the BOTTOM of sediment column</t>
+    <t>Concentration of H4SiO4 at the BOTTOM</t>
   </si>
   <si>
     <t>pHBW</t>
@@ -441,7 +438,7 @@
     <t>TCO2L</t>
   </si>
   <si>
-    <t>Concentration of TCO2 at the BOTTOM of sediment column</t>
+    <t>Concentration of TCO2 at the BOTTOM</t>
   </si>
   <si>
     <t>TH2SBW</t>
@@ -453,7 +450,7 @@
     <t>TH2SL</t>
   </si>
   <si>
-    <t>Concentration of TH2S at the BOTTOM of sediment column</t>
+    <t>Concentration of TH2S at the BOTTOM</t>
   </si>
   <si>
     <t>TH3BO3BW</t>
@@ -471,7 +468,7 @@
     <t>THFL</t>
   </si>
   <si>
-    <t>Concentration of THF at the BOTTOM of sediment column</t>
+    <t>Concentration of THF at the BOTTOM</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -754,6 +751,12 @@
   </si>
   <si>
     <t>appears in RCFA_pre</t>
+  </si>
+  <si>
+    <t>kMo_rm1</t>
+  </si>
+  <si>
+    <t>appears in RMol_rm1,RMoh_rm1</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1296,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1310,14 +1313,14 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1325,20 +1328,20 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1346,20 +1349,20 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1367,20 +1370,20 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1388,18 +1391,18 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1407,18 +1410,18 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1426,18 +1429,18 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1445,18 +1448,18 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1464,20 +1467,20 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>56</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1485,20 +1488,20 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1506,20 +1509,20 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1527,20 +1530,20 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1548,20 +1551,20 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1569,20 +1572,20 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1590,20 +1593,20 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1611,20 +1614,20 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1632,20 +1635,20 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1653,20 +1656,20 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
         <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1674,20 +1677,20 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1695,20 +1698,20 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1716,20 +1719,20 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1737,20 +1740,20 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1758,20 +1761,20 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1779,20 +1782,20 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s">
         <v>88</v>
-      </c>
-      <c r="F33" t="s">
-        <v>89</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1800,20 +1803,20 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1821,20 +1824,20 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1842,20 +1845,20 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36"/>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1863,20 +1866,20 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37"/>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1884,20 +1887,20 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38"/>
       <c r="E38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1905,20 +1908,20 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1926,20 +1929,20 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -1947,20 +1950,20 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1968,20 +1971,20 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1989,20 +1992,20 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2010,20 +2013,20 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2031,20 +2034,20 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2052,20 +2055,20 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2073,20 +2076,20 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2094,20 +2097,20 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D48"/>
       <c r="E48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2115,20 +2118,20 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D49"/>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2136,20 +2139,20 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D50"/>
       <c r="E50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2157,20 +2160,20 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -2178,20 +2181,20 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2199,20 +2202,20 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2220,20 +2223,20 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2241,20 +2244,20 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D55"/>
       <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" t="s">
         <v>133</v>
-      </c>
-      <c r="F55" t="s">
-        <v>134</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2262,20 +2265,20 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D56"/>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -2283,20 +2286,20 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D57"/>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2304,20 +2307,20 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D58"/>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2325,20 +2328,20 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59"/>
       <c r="E59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2346,20 +2349,20 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -2367,20 +2370,20 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D61"/>
       <c r="E61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2388,20 +2391,20 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D62"/>
       <c r="E62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2409,18 +2412,18 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
         <v>149</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" t="s">
-        <v>150</v>
       </c>
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2428,18 +2431,18 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2447,18 +2450,18 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65"/>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2466,18 +2469,18 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -2485,18 +2488,18 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -2504,18 +2507,18 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -2523,18 +2526,18 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2542,18 +2545,18 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2561,18 +2564,18 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2580,18 +2583,18 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2599,18 +2602,18 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2618,18 +2621,18 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -2637,18 +2640,18 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D75"/>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2656,18 +2659,18 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D76"/>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2675,18 +2678,18 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2694,18 +2697,18 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2713,18 +2716,18 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -2732,18 +2735,18 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D80"/>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -2751,18 +2754,18 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2770,18 +2773,18 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D82"/>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -2789,18 +2792,18 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -2808,18 +2811,18 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D84"/>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -2827,18 +2830,18 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D85"/>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2846,18 +2849,18 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D86"/>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -2865,18 +2868,18 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -2884,18 +2887,18 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -2903,18 +2906,18 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -2922,18 +2925,18 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -2941,18 +2944,18 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D91"/>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2960,18 +2963,18 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D92"/>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -2979,18 +2982,18 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -2998,18 +3001,18 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G94">
         <v>1</v>
@@ -3017,18 +3020,18 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D95"/>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3036,18 +3039,18 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s">
         <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D96"/>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3055,18 +3058,18 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D97"/>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3074,18 +3077,18 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B98" t="s">
         <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D98"/>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -3093,18 +3096,18 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B99" t="s">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D99"/>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -3112,18 +3115,18 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D100"/>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3131,18 +3134,18 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101"/>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3150,18 +3153,18 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D102"/>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -3169,18 +3172,18 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D103"/>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3188,18 +3191,18 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3207,18 +3210,18 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3226,18 +3229,18 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D106"/>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -3245,18 +3248,18 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D107"/>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3264,18 +3267,18 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D108"/>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -3283,18 +3286,18 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D109"/>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -3302,18 +3305,18 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D110"/>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -3321,20 +3324,39 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D111"/>
       <c r="E111"/>
       <c r="F111" t="s">
+        <v>241</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
         <v>242</v>
       </c>
-      <c r="G111">
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>243</v>
+      </c>
+      <c r="G112">
         <v>1</v>
       </c>
     </row>

--- a/examples/SBB/model_parameter_template.SBB_case1.xlsx
+++ b/examples/SBB/model_parameter_template.SBB_case1.xlsx
@@ -285,12 +285,66 @@
     <t>Flux of LMoh at the  TOP</t>
   </si>
   <si>
+    <t>O2BW</t>
+  </si>
+  <si>
+    <t>mmol cm^-3</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of O2</t>
+  </si>
+  <si>
+    <t>NO3BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of NO3</t>
+  </si>
+  <si>
+    <t>CH4BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of CH4</t>
+  </si>
+  <si>
+    <t>CH4L</t>
+  </si>
+  <si>
+    <t>Concentration of CH4 at the BOTTOM</t>
+  </si>
+  <si>
+    <t>NO2BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of NO2</t>
+  </si>
+  <si>
+    <t>CaBW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of Ca</t>
+  </si>
+  <si>
+    <t>CaL</t>
+  </si>
+  <si>
+    <t>Concentration of Ca at the BOTTOM</t>
+  </si>
+  <si>
+    <t>H4SiO4BW</t>
+  </si>
+  <si>
+    <t>Bottom water concentration of H4SiO4</t>
+  </si>
+  <si>
+    <t>H4SiO4L</t>
+  </si>
+  <si>
+    <t>Concentration of H4SiO4 at the BOTTOM</t>
+  </si>
+  <si>
     <t>TMn_dis0</t>
   </si>
   <si>
-    <t>mmol cm^-3</t>
-  </si>
-  <si>
     <t>Concentration of TMn_dis at the TOP</t>
   </si>
   <si>
@@ -336,48 +390,6 @@
     <t>Concentration of TNH4_ads at the BOTTOM</t>
   </si>
   <si>
-    <t>O2BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of O2</t>
-  </si>
-  <si>
-    <t>NO3BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of NO3</t>
-  </si>
-  <si>
-    <t>CH4BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of CH4</t>
-  </si>
-  <si>
-    <t>CH4L</t>
-  </si>
-  <si>
-    <t>Concentration of CH4 at the BOTTOM</t>
-  </si>
-  <si>
-    <t>NO2BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of NO2</t>
-  </si>
-  <si>
-    <t>CaBW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of Ca</t>
-  </si>
-  <si>
-    <t>CaL</t>
-  </si>
-  <si>
-    <t>Concentration of Ca at the BOTTOM</t>
-  </si>
-  <si>
     <t>Mol_dis0</t>
   </si>
   <si>
@@ -406,18 +418,6 @@
   </si>
   <si>
     <t>Concentration of THSO4 at the BOTTOM</t>
-  </si>
-  <si>
-    <t>H4SiO4BW</t>
-  </si>
-  <si>
-    <t>Bottom water concentration of H4SiO4</t>
-  </si>
-  <si>
-    <t>H4SiO4L</t>
-  </si>
-  <si>
-    <t>Concentration of H4SiO4 at the BOTTOM</t>
   </si>
   <si>
     <t>pHBW</t>
